--- a/data/nihe.xlsx
+++ b/data/nihe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实操\vscode实操\华数杯国际模板01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6907DE-5141-4324-9CE6-41F6378D02D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F4C4FC-1639-4DFC-BDA3-EA8A3AF745BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6610" yWindow="3280" windowWidth="15580" windowHeight="11600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
   <si>
     <t>产业</t>
   </si>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对数拟合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S2</t>
   </si>
   <si>
@@ -170,36 +166,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>一元线性回归拟合（y=ax+b）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二元多项式回归拟合（y=ax2+bx+c）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数拟合（y=aln(x)+b）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数拟合（y=ae(bx)+ce(dx)）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>系数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>指数系数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>系数2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>指数系数2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一元线性回归拟合（y=ax+b）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二元多项式回归拟合（y=ax2+bx+c）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对数拟合（y=aln(x)+b）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指数拟合（y=ae(bx)+ce(dx)）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -391,7 +383,27 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -810,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -823,7 +835,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -852,15 +864,15 @@
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6">
         <v>1.6561347535136699</v>
@@ -875,24 +887,24 @@
         <v>7043.1129545076001</v>
       </c>
       <c r="F3" s="7">
-        <v>16052.518408508</v>
+        <v>16052.5184085088</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="6">
         <v>0.88930505741541499</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6">
         <v>0.80300756700470799</v>
@@ -901,16 +913,16 @@
         <v>63197.5473142802</v>
       </c>
       <c r="D4" s="6">
-        <v>0.93677809311013704</v>
+        <v>0.93677809311013605</v>
       </c>
       <c r="E4" s="6">
         <v>36110.906056377797</v>
       </c>
       <c r="F4" s="7">
-        <v>68170.92297082</v>
+        <v>68170.922970820597</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="6">
         <v>0.96427063833943105</v>
@@ -927,7 +939,7 @@
     </row>
     <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6">
         <v>0.15585530469362199</v>
@@ -946,7 +958,7 @@
       </c>
       <c r="G5" s="10"/>
       <c r="I5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="6">
         <v>0.90765330255089105</v>
@@ -957,28 +969,28 @@
     </row>
     <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6">
-        <v>0.47067099807012303</v>
+        <v>3.94665423811835</v>
       </c>
       <c r="C6" s="6">
-        <v>52958.5626961327</v>
+        <v>20271.639871466701</v>
       </c>
       <c r="D6" s="6">
-        <v>-0.18716576719417799</v>
+        <v>0.30509175149964002</v>
       </c>
       <c r="E6" s="6">
-        <v>30850.872009503299</v>
+        <v>32194.0753536048</v>
       </c>
       <c r="F6" s="7">
-        <v>35789.752024863003</v>
+        <v>58571.086459750302</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" s="6">
-        <v>0.432540166942811</v>
+        <v>0.64351882145191797</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>10</v>
@@ -986,7 +998,7 @@
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="6">
         <v>0.57723190583781803</v>
@@ -995,16 +1007,16 @@
         <v>4786.6182744743801</v>
       </c>
       <c r="D7" s="6">
-        <v>0.94041694331712999</v>
+        <v>0.940416943317124</v>
       </c>
       <c r="E7" s="6">
         <v>3261.1212872823298</v>
       </c>
       <c r="F7" s="7">
-        <v>5396.9622570239999</v>
+        <v>5396.9622570239499</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" s="6">
         <v>0.96056437531628103</v>
@@ -1015,7 +1027,7 @@
     </row>
     <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6">
         <v>2.23348747809447</v>
@@ -1024,16 +1036,16 @@
         <v>1794.6263564900501</v>
       </c>
       <c r="D8" s="6">
-        <v>0.80455474848136199</v>
+        <v>0.804554748481352</v>
       </c>
       <c r="E8" s="6">
         <v>1715.7662942064901</v>
       </c>
       <c r="F8" s="7">
-        <v>2231.9490456570002</v>
+        <v>2231.94904565673</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" s="6">
         <v>0.86895949507473103</v>
@@ -1044,36 +1056,36 @@
     </row>
     <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6">
-        <v>-3.9841746419362098E-2</v>
+        <v>61.726210328320498</v>
       </c>
       <c r="C9" s="6">
-        <v>45719.123236171203</v>
+        <v>2075.9107503215801</v>
       </c>
       <c r="D9" s="6">
-        <v>-0.18455618802548401</v>
+        <v>0.52997765273748598</v>
       </c>
       <c r="E9" s="6">
-        <v>27313.189839045699</v>
+        <v>13963.8556535755</v>
       </c>
       <c r="F9" s="7">
-        <v>30673.844958635302</v>
+        <v>18616.452213349399</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="6">
-        <v>8.9063942881368E-2</v>
+        <v>0.72874079280666304</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="6">
         <v>0.229223823406592</v>
@@ -1091,7 +1103,7 @@
         <v>9240.2214967137206</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J10" s="6">
         <v>0.94041170561512399</v>
@@ -1102,7 +1114,7 @@
     </row>
     <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6">
         <v>0.204843044782788</v>
@@ -1120,7 +1132,7 @@
         <v>43973.924140203002</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" s="6">
         <v>0.95420964434811695</v>
@@ -1132,7 +1144,7 @@
     <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1166,16 +1178,16 @@
     </row>
     <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="6">
         <v>19704.673886533801</v>
       </c>
       <c r="C15" s="6">
-        <v>2.3768341070000001</v>
-      </c>
-      <c r="D15" s="6">
-        <v>-1.8144044390000001E-5</v>
+        <v>2.37683410676309</v>
+      </c>
+      <c r="D15" s="9">
+        <v>-1.8144044389624302E-5</v>
       </c>
       <c r="E15" s="6">
         <v>0.84785421411497996</v>
@@ -1187,24 +1199,24 @@
         <v>16595.755396062399</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="6">
         <v>40290.479860782201</v>
       </c>
       <c r="C16" s="6">
-        <v>1.16878317</v>
-      </c>
-      <c r="D16" s="6">
-        <v>-9.3467600619999998E-8</v>
+        <v>1.16878317032108</v>
+      </c>
+      <c r="D16" s="9">
+        <v>-9.3467600619854602E-7</v>
       </c>
       <c r="E16" s="6">
-        <v>0.96427063833943105</v>
+        <v>0.96427063833943005</v>
       </c>
       <c r="F16" s="6">
         <v>15846.309830857899</v>
@@ -1215,16 +1227,16 @@
     </row>
     <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="6">
         <v>27174.598052551199</v>
       </c>
       <c r="C17" s="6">
-        <v>0.279024718</v>
-      </c>
-      <c r="D17" s="6">
-        <v>-3.8646316499999997E-8</v>
+        <v>0.27902471821292901</v>
+      </c>
+      <c r="D17" s="9">
+        <v>-3.8646316501609101E-7</v>
       </c>
       <c r="E17" s="6">
         <v>0.66585660883574405</v>
@@ -1239,65 +1251,65 @@
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="6">
-        <v>-15861.9577327687</v>
+        <v>-14456.001101473799</v>
       </c>
       <c r="C18" s="6">
-        <v>15.85968845</v>
+        <v>15.161390091651899</v>
       </c>
       <c r="D18" s="6">
-        <v>-6.2447503416200004E-4</v>
+        <v>-5.7101040189731799E-4</v>
       </c>
       <c r="E18" s="6">
-        <v>0.39009260623572201</v>
+        <v>0.62903841157129103</v>
       </c>
       <c r="F18" s="6">
-        <v>83556.007455447398</v>
+        <v>79793.313887849901</v>
       </c>
       <c r="G18" s="7">
-        <v>299524.48472815601</v>
+        <v>286679.673386721</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="6">
-        <v>8147.8968243669096</v>
+        <v>8147.8968243668396</v>
       </c>
       <c r="C19" s="6">
-        <v>0.275484909</v>
-      </c>
-      <c r="D19" s="6">
-        <v>3.8579101649009998E-8</v>
+        <v>0.27548490919637802</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3.8579101649012202E-6</v>
       </c>
       <c r="E19" s="6">
-        <v>0.96056437531628103</v>
+        <v>0.96056437531627903</v>
       </c>
       <c r="F19" s="6">
         <v>2620.9773687844599</v>
       </c>
       <c r="G19" s="7">
-        <v>4450.5303020793899</v>
+        <v>4450.5303020793999</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="6">
-        <v>3711.6881199999402</v>
+        <v>3711.6881199999498</v>
       </c>
       <c r="C20" s="6">
-        <v>0.34833948399999998</v>
+        <v>0.348339483754391</v>
       </c>
       <c r="D20" s="6">
-        <v>2.8791422345299998E-4</v>
+        <v>2.8791422345344797E-4</v>
       </c>
       <c r="E20" s="6">
-        <v>0.86895949507473103</v>
+        <v>0.86895949507472603</v>
       </c>
       <c r="F20" s="6">
         <v>1555.6088479161699</v>
@@ -1308,39 +1320,39 @@
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="6">
-        <v>47347.7204050531</v>
+        <v>-11813.371037593801</v>
       </c>
       <c r="C21" s="6">
-        <v>-0.768944497</v>
+        <v>148.788406818358</v>
       </c>
       <c r="D21" s="6">
-        <v>5.7853415807239997E-6</v>
+        <v>-6.6543554106875305E-2</v>
       </c>
       <c r="E21" s="6">
-        <v>-0.12373945376100499</v>
+        <v>0.70881396701038302</v>
       </c>
       <c r="F21" s="6">
-        <v>26300.053117542298</v>
+        <v>12790.1286244116</v>
       </c>
       <c r="G21" s="7">
-        <v>30353.933686420802</v>
+        <v>16289.1920176697</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="6">
         <v>-518.14966348567305</v>
       </c>
       <c r="C22" s="6">
-        <v>0.44843929900000001</v>
-      </c>
-      <c r="D22" s="6">
-        <v>-6.4561818593640005E-8</v>
+        <v>0.44843929904148799</v>
+      </c>
+      <c r="D22" s="9">
+        <v>-6.4561818593963897E-7</v>
       </c>
       <c r="E22" s="6">
         <v>0.94041170561512399</v>
@@ -1354,19 +1366,19 @@
     </row>
     <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="6">
         <v>54027.952121137103</v>
       </c>
       <c r="C23" s="6">
-        <v>0.50305363700000005</v>
-      </c>
-      <c r="D23" s="6">
-        <v>-2.5255033466109999E-8</v>
+        <v>0.50305363652759205</v>
+      </c>
+      <c r="D23" s="9">
+        <v>-2.5255033466111802E-7</v>
       </c>
       <c r="E23" s="6">
-        <v>0.86478385340574404</v>
+        <v>0.86478385340574604</v>
       </c>
       <c r="F23" s="6">
         <v>26291.995386056598</v>
@@ -1378,7 +1390,7 @@
     <row r="24" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1406,12 +1418,12 @@
         <v>5</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="6">
         <v>-43377.272597963398</v>
@@ -1431,7 +1443,7 @@
     </row>
     <row r="28" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="6">
         <v>-941267.913114622</v>
@@ -1452,7 +1464,7 @@
     </row>
     <row r="29" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="6">
         <v>-52751.627004536502</v>
@@ -1472,27 +1484,27 @@
     </row>
     <row r="30" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="6">
-        <v>-104278.635671057</v>
+        <v>-112901.080702461</v>
       </c>
       <c r="C30" s="6">
-        <v>17979.744524171601</v>
+        <v>19194.3656127877</v>
       </c>
       <c r="D30" s="6">
-        <v>0.19724446229974801</v>
+        <v>0.28690296650113301</v>
       </c>
       <c r="E30" s="6">
-        <v>25700.6039511409</v>
+        <v>22010.1451275691</v>
       </c>
       <c r="F30" s="7">
-        <v>32116.632718880999</v>
+        <v>28375.447686338601</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="6">
         <v>-74601.460580809202</v>
@@ -1512,19 +1524,19 @@
     </row>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="6">
-        <v>-31515.4211883352</v>
+        <v>-31515.421633742499</v>
       </c>
       <c r="C32" s="6">
-        <v>5263.5213353538702</v>
+        <v>5263.52138857505</v>
       </c>
       <c r="D32" s="6">
         <v>0.71019578481604195</v>
       </c>
       <c r="E32" s="6">
-        <v>2508.5076786695099</v>
+        <v>2508.5076809255702</v>
       </c>
       <c r="F32" s="7">
         <v>2883.0158322089901</v>
@@ -1532,27 +1544,27 @@
     </row>
     <row r="33" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="6">
-        <v>10168.2404224826</v>
+        <v>-130367.247175998</v>
       </c>
       <c r="C33" s="6">
-        <v>5226.5757933083796</v>
+        <v>28557.148520218099</v>
       </c>
       <c r="D33" s="6">
-        <v>8.9063942881368E-2</v>
+        <v>0.69545840400858105</v>
       </c>
       <c r="E33" s="6">
-        <v>26313.397120521699</v>
+        <v>14689.920840872701</v>
       </c>
       <c r="F33" s="7">
-        <v>29298.037096498199</v>
+        <v>17911.370958932301</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="6">
         <v>-107527.75883531899</v>
@@ -1561,7 +1573,7 @@
         <v>13332.751821792301</v>
       </c>
       <c r="D34" s="6">
-        <v>0.58939257131887202</v>
+        <v>0.58939257131872003</v>
       </c>
       <c r="E34" s="6">
         <v>14368.3248115759</v>
@@ -1572,19 +1584,19 @@
     </row>
     <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" s="6">
-        <v>-524379.08475067804</v>
+        <v>-524379.086687117</v>
       </c>
       <c r="C35" s="6">
-        <v>57655.839029574803</v>
+        <v>57655.839200059498</v>
       </c>
       <c r="D35" s="6">
         <v>0.93633534154586595</v>
       </c>
       <c r="E35" s="6">
-        <v>15057.922676693601</v>
+        <v>15057.922606058701</v>
       </c>
       <c r="F35" s="7">
         <v>22649.163196650599</v>
@@ -1593,7 +1605,7 @@
     <row r="36" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -1608,16 +1620,16 @@
         <v>0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>3</v>
@@ -1629,24 +1641,24 @@
         <v>5</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="6">
         <v>-412169.51943750097</v>
       </c>
       <c r="C39" s="9">
-        <v>1.2686488E-5</v>
+        <v>1.26864877402299E-5</v>
       </c>
       <c r="D39" s="6">
         <v>445920.94130846602</v>
       </c>
       <c r="E39" s="9">
-        <v>1.3789013E-5</v>
+        <v>1.3789012910235301E-5</v>
       </c>
       <c r="F39" s="6">
         <v>0.59458613130966598</v>
@@ -1660,46 +1672,46 @@
     </row>
     <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" s="6">
-        <v>719381.93952494604</v>
+        <v>719381.939525055</v>
       </c>
       <c r="C40" s="9">
-        <v>-3.7878700000000002E-8</v>
+        <v>-3.7878644439150798E-7</v>
       </c>
       <c r="D40" s="6">
-        <v>-662412.70702189498</v>
+        <v>-662412.70702200301</v>
       </c>
       <c r="E40" s="9">
-        <v>-2.214609E-6</v>
+        <v>-2.21460914618864E-6</v>
       </c>
       <c r="F40" s="6">
         <v>0.91078452471616</v>
       </c>
       <c r="G40" s="6">
-        <v>19340.216073527001</v>
+        <v>19340.216073527099</v>
       </c>
       <c r="H40" s="6">
-        <v>31358.011440732502</v>
+        <v>31358.0114407324</v>
       </c>
       <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41" s="6">
         <v>46808.8437333814</v>
       </c>
       <c r="C41" s="9">
-        <v>1.5436060000000001E-6</v>
+        <v>1.5436063150215901E-6</v>
       </c>
       <c r="D41" s="6">
         <v>-66777.281794559894</v>
       </c>
       <c r="E41" s="6">
-        <v>-5.5693938799999997E-4</v>
+        <v>-5.5693938820510305E-4</v>
       </c>
       <c r="F41" s="6">
         <v>0.90765330255089105</v>
@@ -1713,51 +1725,51 @@
     </row>
     <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42" s="6">
-        <v>-144745.73129738399</v>
+        <v>-160800.24369445801</v>
       </c>
       <c r="C42" s="6">
-        <v>-1.92090552E-4</v>
+        <v>-1.83229807275506E-4</v>
       </c>
       <c r="D42" s="6">
-        <v>119894.87518432199</v>
+        <v>133611.891317114</v>
       </c>
       <c r="E42" s="9">
-        <v>-2.3467594999999998E-5</v>
+        <v>-2.4373062460346101E-5</v>
       </c>
       <c r="F42" s="6">
-        <v>0.432540166942811</v>
+        <v>0.64351882145191797</v>
       </c>
       <c r="G42" s="6">
-        <v>20111.310118821399</v>
+        <v>15251.336321854</v>
       </c>
       <c r="H42" s="6">
-        <v>27002.620518800999</v>
+        <v>20062.576688086301</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" s="6">
-        <v>22913.606247645701</v>
+        <v>22913.606247721898</v>
       </c>
       <c r="C43" s="6">
-        <v>-4.36986311E-4</v>
+        <v>-4.3698631128385101E-4</v>
       </c>
       <c r="D43" s="6">
-        <v>10426.853928390199</v>
+        <v>10426.8539283928</v>
       </c>
       <c r="E43" s="9">
-        <v>2.1266262999999999E-5</v>
+        <v>2.1266262822737399E-5</v>
       </c>
       <c r="F43" s="6">
         <v>0.95212118477775498</v>
       </c>
       <c r="G43" s="6">
-        <v>2356.7598281689402</v>
+        <v>2356.75982816855</v>
       </c>
       <c r="H43" s="6">
         <v>3155.84985508619</v>
@@ -1765,71 +1777,71 @@
     </row>
     <row r="44" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" s="6">
-        <v>3751.70187796972</v>
+        <v>3751.7018774155399</v>
       </c>
       <c r="C44" s="6">
-        <v>2.3236922500000001E-4</v>
+        <v>2.3236922513513E-4</v>
       </c>
       <c r="D44" s="6">
-        <v>-4882.0262036765698</v>
+        <v>-4882.0262730663699</v>
       </c>
       <c r="E44" s="6">
-        <v>-3.6971040000000001E-3</v>
+        <v>-3.69710378926772E-3</v>
       </c>
       <c r="F44" s="6">
-        <v>0.84603392215394702</v>
+        <v>0.84603392215397999</v>
       </c>
       <c r="G44" s="6">
-        <v>1503.0246416914699</v>
+        <v>1503.0246417523099</v>
       </c>
       <c r="H44" s="6">
-        <v>2101.3926150418802</v>
+        <v>2101.3926150416501</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45" s="9">
-        <v>9.1814500000000004E-10</v>
+        <v>554276488.410411</v>
       </c>
       <c r="C45" s="6">
-        <v>2.3894345899999999E-4</v>
+        <v>-6.6940837598988704E-4</v>
       </c>
       <c r="D45" s="6">
-        <v>47363.523030641198</v>
+        <v>-554287476.67183602</v>
       </c>
       <c r="E45" s="9">
-        <v>-1.3865040000000001E-6</v>
+        <v>-6.6966983945812098E-4</v>
       </c>
       <c r="F45" s="6">
-        <v>2.3492274920700999E-2</v>
+        <v>0.72874079280666304</v>
       </c>
       <c r="G45" s="6">
-        <v>26321.7480712746</v>
+        <v>13588.045289968801</v>
       </c>
       <c r="H45" s="6">
-        <v>30334.191195191401</v>
+        <v>16904.322241377798</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46" s="6">
         <v>-637907.77994927298</v>
       </c>
       <c r="C46" s="9">
-        <v>-1.483865E-9</v>
+        <v>-1.4838654939352499E-6</v>
       </c>
       <c r="D46" s="6">
         <v>647498.18184583099</v>
       </c>
       <c r="E46" s="9">
-        <v>-9.5840267000000006E-8</v>
+        <v>-9.5840267284694206E-7</v>
       </c>
       <c r="F46" s="6">
         <v>0.87623023715617099</v>
@@ -1843,25 +1855,25 @@
     </row>
     <row r="47" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47" s="6">
-        <v>205295.596199964</v>
+        <v>205295.59619997401</v>
       </c>
       <c r="C47" s="9">
-        <v>2.8331180999999999E-8</v>
+        <v>2.8331181248382598E-7</v>
       </c>
       <c r="D47" s="6">
-        <v>-190772.572816172</v>
+        <v>-190772.572816175</v>
       </c>
       <c r="E47" s="9">
-        <v>-9.0400229999999994E-6</v>
+        <v>-9.0400230254823097E-6</v>
       </c>
       <c r="F47" s="6">
         <v>0.95420964434811695</v>
       </c>
       <c r="G47" s="6">
-        <v>12839.5559220539</v>
+        <v>12839.5559220548</v>
       </c>
       <c r="H47" s="6">
         <v>19208.345671417101</v>
@@ -1876,71 +1888,71 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:D11">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E23">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D35">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E23">
+  <conditionalFormatting sqref="F39:F47">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D35">
+  <conditionalFormatting sqref="I2:K5 I10:K11 I9 K9 I7:K8 I6 K6">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F47">
+  <conditionalFormatting sqref="J4">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:K11">
+  <conditionalFormatting sqref="K4:Q4">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="J5 J7:J8">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:Q4">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
-      <formula>0.8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J9">
+  <conditionalFormatting sqref="J7">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
-      <formula>0.8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="J10">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
+  <conditionalFormatting sqref="J11">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
+  <conditionalFormatting sqref="J9">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+  <conditionalFormatting sqref="J6">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
